--- a/1.Final_file/5.ployment/predicted_quadrants.xlsx
+++ b/1.Final_file/5.ployment/predicted_quadrants.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/1.Final_file/5.ployment/predicted_quadrants.xlsx
+++ b/1.Final_file/5.ployment/predicted_quadrants.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Ca</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Da</t>
+          <t>Ca</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bd</t>
         </is>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Ca</t>
         </is>
       </c>
     </row>
@@ -10683,7 +10683,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Cb</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>Ad</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Cd</t>
         </is>
       </c>
     </row>
@@ -15858,7 +15858,7 @@
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -16203,7 +16203,7 @@
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -16272,7 +16272,7 @@
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -17652,7 +17652,7 @@
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -17859,7 +17859,7 @@
       </c>
       <c r="U252" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>Ad</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -19308,7 +19308,7 @@
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -19515,7 +19515,7 @@
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -19929,7 +19929,7 @@
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -20550,7 +20550,7 @@
       </c>
       <c r="U291" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="U303" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       </c>
       <c r="U306" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -21792,7 +21792,7 @@
       </c>
       <c r="U309" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -21930,7 +21930,7 @@
       </c>
       <c r="U311" t="inlineStr">
         <is>
-          <t>Da</t>
+          <t>Bb</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22206,7 @@
       </c>
       <c r="U315" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -22344,7 +22344,7 @@
       </c>
       <c r="U317" t="inlineStr">
         <is>
-          <t>Eb</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -22482,7 +22482,7 @@
       </c>
       <c r="U319" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -22551,7 +22551,7 @@
       </c>
       <c r="U320" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -22896,7 +22896,7 @@
       </c>
       <c r="U325" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="U326" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="U334" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="U335" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -24414,7 +24414,7 @@
       </c>
       <c r="U347" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -24552,7 +24552,7 @@
       </c>
       <c r="U349" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="U353" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="U357" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -25794,7 +25794,7 @@
       </c>
       <c r="U367" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="U368" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ba</t>
         </is>
       </c>
     </row>
@@ -25932,7 +25932,7 @@
       </c>
       <c r="U369" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -26415,7 +26415,7 @@
       </c>
       <c r="U376" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -26898,7 +26898,7 @@
       </c>
       <c r="U383" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -27381,7 +27381,7 @@
       </c>
       <c r="U390" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -27450,7 +27450,7 @@
       </c>
       <c r="U391" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="U392" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cd</t>
         </is>
       </c>
     </row>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="U396" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="U397" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -27933,7 +27933,7 @@
       </c>
       <c r="U398" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -28278,7 +28278,7 @@
       </c>
       <c r="U403" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -28416,7 +28416,7 @@
       </c>
       <c r="U405" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="U407" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -28692,7 +28692,7 @@
       </c>
       <c r="U409" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -28968,7 +28968,7 @@
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -29658,7 +29658,7 @@
       </c>
       <c r="U423" t="inlineStr">
         <is>
-          <t>Cc</t>
+          <t>Bd</t>
         </is>
       </c>
     </row>
@@ -29727,7 +29727,7 @@
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -30003,7 +30003,7 @@
       </c>
       <c r="U428" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Cd</t>
         </is>
       </c>
     </row>
@@ -30141,7 +30141,7 @@
       </c>
       <c r="U430" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -31176,7 +31176,7 @@
       </c>
       <c r="U445" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="U447" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -31797,7 +31797,7 @@
       </c>
       <c r="U454" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -32142,7 +32142,7 @@
       </c>
       <c r="U459" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -32487,7 +32487,7 @@
       </c>
       <c r="U464" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -32694,7 +32694,7 @@
       </c>
       <c r="U467" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="U473" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -33660,7 +33660,7 @@
       </c>
       <c r="U481" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -33798,7 +33798,7 @@
       </c>
       <c r="U483" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -33936,7 +33936,7 @@
       </c>
       <c r="U485" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -34005,7 +34005,7 @@
       </c>
       <c r="U486" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -34281,7 +34281,7 @@
       </c>
       <c r="U490" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -34350,7 +34350,7 @@
       </c>
       <c r="U491" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="U494" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -35592,7 +35592,7 @@
       </c>
       <c r="U509" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -35937,7 +35937,7 @@
       </c>
       <c r="U514" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -36351,7 +36351,7 @@
       </c>
       <c r="U520" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -36489,7 +36489,7 @@
       </c>
       <c r="U522" t="inlineStr">
         <is>
-          <t>Cc</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -36558,7 +36558,7 @@
       </c>
       <c r="U523" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -37041,7 +37041,7 @@
       </c>
       <c r="U530" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -37386,7 +37386,7 @@
       </c>
       <c r="U535" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -37524,7 +37524,7 @@
       </c>
       <c r="U537" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="U545" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -38145,7 +38145,7 @@
       </c>
       <c r="U546" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -38283,7 +38283,7 @@
       </c>
       <c r="U548" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -38628,7 +38628,7 @@
       </c>
       <c r="U553" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -38904,7 +38904,7 @@
       </c>
       <c r="U557" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -39318,7 +39318,7 @@
       </c>
       <c r="U563" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -39525,7 +39525,7 @@
       </c>
       <c r="U566" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -39870,7 +39870,7 @@
       </c>
       <c r="U571" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -40491,7 +40491,7 @@
       </c>
       <c r="U580" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -40698,7 +40698,7 @@
       </c>
       <c r="U583" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -41112,7 +41112,7 @@
       </c>
       <c r="U589" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -41250,7 +41250,7 @@
       </c>
       <c r="U591" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="U593" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -41526,7 +41526,7 @@
       </c>
       <c r="U595" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -41664,7 +41664,7 @@
       </c>
       <c r="U597" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -41871,7 +41871,7 @@
       </c>
       <c r="U600" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -42216,7 +42216,7 @@
       </c>
       <c r="U605" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -42285,7 +42285,7 @@
       </c>
       <c r="U606" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -42561,7 +42561,7 @@
       </c>
       <c r="U610" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -42975,7 +42975,7 @@
       </c>
       <c r="U616" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ba</t>
         </is>
       </c>
     </row>
@@ -43251,7 +43251,7 @@
       </c>
       <c r="U620" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -43320,7 +43320,7 @@
       </c>
       <c r="U621" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -43527,7 +43527,7 @@
       </c>
       <c r="U624" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -43872,7 +43872,7 @@
       </c>
       <c r="U629" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -43941,7 +43941,7 @@
       </c>
       <c r="U630" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -44079,7 +44079,7 @@
       </c>
       <c r="U632" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -44217,7 +44217,7 @@
       </c>
       <c r="U634" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -44562,7 +44562,7 @@
       </c>
       <c r="U639" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -44631,7 +44631,7 @@
       </c>
       <c r="U640" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ed</t>
         </is>
       </c>
     </row>
@@ -44907,7 +44907,7 @@
       </c>
       <c r="U644" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -45183,7 +45183,7 @@
       </c>
       <c r="U648" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cd</t>
         </is>
       </c>
     </row>
@@ -45252,7 +45252,7 @@
       </c>
       <c r="U649" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -45390,7 +45390,7 @@
       </c>
       <c r="U651" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -45735,7 +45735,7 @@
       </c>
       <c r="U656" t="inlineStr">
         <is>
-          <t>Ec</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -45942,7 +45942,7 @@
       </c>
       <c r="U659" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -46080,7 +46080,7 @@
       </c>
       <c r="U661" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -46149,7 +46149,7 @@
       </c>
       <c r="U662" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ba</t>
         </is>
       </c>
     </row>
@@ -47943,7 +47943,7 @@
       </c>
       <c r="U688" t="inlineStr">
         <is>
-          <t>Cb</t>
+          <t>Db</t>
         </is>
       </c>
     </row>
@@ -48219,7 +48219,7 @@
       </c>
       <c r="U692" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -48426,7 +48426,7 @@
       </c>
       <c r="U695" t="inlineStr">
         <is>
-          <t>Bd</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -48495,7 +48495,7 @@
       </c>
       <c r="U696" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cb</t>
         </is>
       </c>
     </row>
@@ -48564,7 +48564,7 @@
       </c>
       <c r="U697" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -48771,7 +48771,7 @@
       </c>
       <c r="U700" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -48909,7 +48909,7 @@
       </c>
       <c r="U702" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ad</t>
         </is>
       </c>
     </row>
@@ -49047,7 +49047,7 @@
       </c>
       <c r="U704" t="inlineStr">
         <is>
-          <t>Dd</t>
+          <t>Ec</t>
         </is>
       </c>
     </row>
@@ -49530,7 +49530,7 @@
       </c>
       <c r="U711" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -50289,7 +50289,7 @@
       </c>
       <c r="U722" t="inlineStr">
         <is>
-          <t>Dc</t>
+          <t>Dd</t>
         </is>
       </c>
     </row>
@@ -50910,7 +50910,7 @@
       </c>
       <c r="U731" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -50979,7 +50979,7 @@
       </c>
       <c r="U732" t="inlineStr">
         <is>
-          <t>Ad</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="U737" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -51393,7 +51393,7 @@
       </c>
       <c r="U738" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Dc</t>
         </is>
       </c>
     </row>
@@ -51531,7 +51531,7 @@
       </c>
       <c r="U740" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -51876,7 +51876,7 @@
       </c>
       <c r="U745" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -52152,7 +52152,7 @@
       </c>
       <c r="U749" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -52290,7 +52290,7 @@
       </c>
       <c r="U751" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -52566,7 +52566,7 @@
       </c>
       <c r="U755" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -52911,7 +52911,7 @@
       </c>
       <c r="U760" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Bc</t>
         </is>
       </c>
     </row>
@@ -53394,7 +53394,7 @@
       </c>
       <c r="U767" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -53463,7 +53463,7 @@
       </c>
       <c r="U768" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -53601,7 +53601,7 @@
       </c>
       <c r="U770" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -53670,7 +53670,7 @@
       </c>
       <c r="U771" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -53739,7 +53739,7 @@
       </c>
       <c r="U772" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -54222,7 +54222,7 @@
       </c>
       <c r="U779" t="inlineStr">
         <is>
-          <t>Da</t>
+          <t>Ca</t>
         </is>
       </c>
     </row>
@@ -54291,7 +54291,7 @@
       </c>
       <c r="U780" t="inlineStr">
         <is>
-          <t>Bc</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -54360,7 +54360,7 @@
       </c>
       <c r="U781" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -54774,7 +54774,7 @@
       </c>
       <c r="U787" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -54912,7 +54912,7 @@
       </c>
       <c r="U789" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
@@ -54981,7 +54981,7 @@
       </c>
       <c r="U790" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>Ac</t>
         </is>
       </c>
     </row>
@@ -55050,7 +55050,7 @@
       </c>
       <c r="U791" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cc</t>
         </is>
       </c>
     </row>
@@ -55119,7 +55119,7 @@
       </c>
       <c r="U792" t="inlineStr">
         <is>
-          <t>Db</t>
+          <t>Eb</t>
         </is>
       </c>
     </row>
@@ -55188,7 +55188,7 @@
       </c>
       <c r="U793" t="inlineStr">
         <is>
-          <t>Bb</t>
+          <t>Ab</t>
         </is>
       </c>
     </row>
